--- a/covid_data.xlsx
+++ b/covid_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamaalsmith/Desktop/Capstone-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FD29B7-47D3-6743-BDFF-990AF105F62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CE7AFF-65EF-0441-8C08-72B41035BC4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,13 +529,13 @@
     <t>7/8/20</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Cases</t>
   </si>
   <si>
     <t>Deaths</t>
+  </si>
+  <si>
+    <t>14 days</t>
   </si>
 </sst>
 </file>
@@ -900,21 +900,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/covid_data.xlsx
+++ b/covid_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamaalsmith/Desktop/Capstone-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CE7AFF-65EF-0441-8C08-72B41035BC4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3133613-3626-3E44-87AE-E04F975109CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
     <t>Deaths</t>
   </si>
   <si>
-    <t>14 days</t>
+    <t>28 days</t>
   </si>
 </sst>
 </file>
@@ -900,7 +900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
